--- a/USL League One 2025.xlsx
+++ b/USL League One 2025.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisalejandrorestrepo/Documents/Leagues/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC2A413-22D5-0144-A667-AF16CBC98A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7191923-AFBB-DE46-8EFD-AD9026B2305A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="760" windowWidth="29360" windowHeight="17160" activeTab="5" xr2:uid="{DE6EC981-F11A-1F4A-A10F-C0B4BF15F86E}"/>
+    <workbookView xWindow="40" yWindow="760" windowWidth="29360" windowHeight="17160" activeTab="6" xr2:uid="{DE6EC981-F11A-1F4A-A10F-C0B4BF15F86E}"/>
   </bookViews>
   <sheets>
     <sheet name="GK" sheetId="8" r:id="rId1"/>
     <sheet name="CB" sheetId="2" r:id="rId2"/>
     <sheet name="FB" sheetId="3" r:id="rId3"/>
     <sheet name="DM" sheetId="4" r:id="rId4"/>
-    <sheet name="CM" sheetId="5" r:id="rId5"/>
+    <sheet name="AM" sheetId="5" r:id="rId5"/>
     <sheet name="W" sheetId="6" r:id="rId6"/>
     <sheet name="CF" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -1240,39 +1240,6 @@
     <t>Impact Final Third Rating</t>
   </si>
   <si>
-    <t>Skilled CB</t>
-  </si>
-  <si>
-    <t>Sweeper CB</t>
-  </si>
-  <si>
-    <t>Imperative CB</t>
-  </si>
-  <si>
-    <t>Defensive FB</t>
-  </si>
-  <si>
-    <t>Offensive FB</t>
-  </si>
-  <si>
-    <t>Imperative FB</t>
-  </si>
-  <si>
-    <t>Creative DM</t>
-  </si>
-  <si>
-    <t>Defensive MD</t>
-  </si>
-  <si>
-    <t>Box to Box AM</t>
-  </si>
-  <si>
-    <t>Builder AM</t>
-  </si>
-  <si>
-    <t>Space Invader AM</t>
-  </si>
-  <si>
     <t>Fast Winger</t>
   </si>
   <si>
@@ -1280,6 +1247,39 @@
   </si>
   <si>
     <t>Gamer Winger</t>
+  </si>
+  <si>
+    <t>Skilled Center Back</t>
+  </si>
+  <si>
+    <t>Sweeper Center Back</t>
+  </si>
+  <si>
+    <t>Imperative Center Back</t>
+  </si>
+  <si>
+    <t>Defensive Full Back</t>
+  </si>
+  <si>
+    <t>Offensive Full Back</t>
+  </si>
+  <si>
+    <t>Imperative Full Back</t>
+  </si>
+  <si>
+    <t>Creative Central Midfielder</t>
+  </si>
+  <si>
+    <t>Defensive Central Midfielder</t>
+  </si>
+  <si>
+    <t>Box to Box Attacking Midfielder</t>
+  </si>
+  <si>
+    <t>Builder Attacking Midfielder</t>
+  </si>
+  <si>
+    <t>Space Invader Attacking Midfielder</t>
   </si>
 </sst>
 </file>
@@ -20861,9 +20861,9 @@
     <tableColumn id="5" xr3:uid="{4A74F4CA-EF68-4B49-9FC0-7B4B170AA09B}" name="Age" dataDxfId="394" dataCellStyle="Normal 2"/>
     <tableColumn id="6" xr3:uid="{C1231EF3-68B1-524A-9AA7-7ECFC09499E6}" name="MP" dataDxfId="393" dataCellStyle="Normal 2"/>
     <tableColumn id="73" xr3:uid="{E901E482-D501-034B-94DB-87AFE38D0390}" name="Global" dataDxfId="392" dataCellStyle="Normal 2"/>
-    <tableColumn id="21" xr3:uid="{B21C300E-4718-1146-8FD2-A462015DAE29}" name="Skilled CB" dataDxfId="391" dataCellStyle="Normal 2"/>
-    <tableColumn id="22" xr3:uid="{D09287A8-0DE6-B247-B02D-0C5D38CDF59F}" name="Sweeper CB" dataDxfId="390" dataCellStyle="Normal 2"/>
-    <tableColumn id="23" xr3:uid="{5E9BB4D1-BF4E-A74A-A9A4-56E6C48AE690}" name="Imperative CB" dataDxfId="389" dataCellStyle="Normal 2"/>
+    <tableColumn id="21" xr3:uid="{B21C300E-4718-1146-8FD2-A462015DAE29}" name="Skilled Center Back" dataDxfId="391" dataCellStyle="Normal 2"/>
+    <tableColumn id="22" xr3:uid="{D09287A8-0DE6-B247-B02D-0C5D38CDF59F}" name="Sweeper Center Back" dataDxfId="390" dataCellStyle="Normal 2"/>
+    <tableColumn id="23" xr3:uid="{5E9BB4D1-BF4E-A74A-A9A4-56E6C48AE690}" name="Imperative Center Back" dataDxfId="389" dataCellStyle="Normal 2"/>
     <tableColumn id="69" xr3:uid="{73BD7C0C-7E4E-7C45-A473-B818F756D3AE}" name="Defensive Rating" dataDxfId="388" dataCellStyle="Normal 2"/>
     <tableColumn id="68" xr3:uid="{EC3A3519-0D95-014C-88F7-E28F8DACF48A}" name="Playmaking Rating" dataDxfId="387" dataCellStyle="Normal 2"/>
     <tableColumn id="67" xr3:uid="{3546D6C1-BE90-4A49-AB15-11EA49050D50}" name="Offensive Rating" dataDxfId="386" dataCellStyle="Normal 2"/>
@@ -20938,9 +20938,9 @@
     <tableColumn id="5" xr3:uid="{183ADDDD-31C3-D44A-B175-46A0C49B3658}" name="Age" dataDxfId="327" dataCellStyle="Normal 2"/>
     <tableColumn id="6" xr3:uid="{8258B680-E010-6040-AB89-1F5D4DEBCB7A}" name="MP" dataDxfId="326" dataCellStyle="Normal 2"/>
     <tableColumn id="73" xr3:uid="{8D97C133-266C-7A41-9843-A1639EA4856D}" name="Global" dataDxfId="325" dataCellStyle="Normal 2"/>
-    <tableColumn id="23" xr3:uid="{24D7581A-C1E0-554D-8A7C-C72EDA4EA55D}" name="Defensive FB" dataDxfId="324" dataCellStyle="Normal 2"/>
-    <tableColumn id="22" xr3:uid="{EB433BCA-919C-DC47-97BC-FA7889CFB8CC}" name="Offensive FB" dataDxfId="323" dataCellStyle="Normal 2"/>
-    <tableColumn id="21" xr3:uid="{16C3FAAD-B738-0947-B4AD-3B3D34E99B98}" name="Imperative FB" dataDxfId="322" dataCellStyle="Normal 2"/>
+    <tableColumn id="23" xr3:uid="{24D7581A-C1E0-554D-8A7C-C72EDA4EA55D}" name="Defensive Full Back" dataDxfId="324" dataCellStyle="Normal 2"/>
+    <tableColumn id="22" xr3:uid="{EB433BCA-919C-DC47-97BC-FA7889CFB8CC}" name="Offensive Full Back" dataDxfId="323" dataCellStyle="Normal 2"/>
+    <tableColumn id="21" xr3:uid="{16C3FAAD-B738-0947-B4AD-3B3D34E99B98}" name="Imperative Full Back" dataDxfId="322" dataCellStyle="Normal 2"/>
     <tableColumn id="69" xr3:uid="{36E2DD6E-29E9-3242-924D-0B7250916B35}" name="Defensive Rating" dataDxfId="321" dataCellStyle="Normal 2"/>
     <tableColumn id="68" xr3:uid="{6D7B4FA9-15F6-0A43-934F-FFDD46747B05}" name="Playmaking Rating" dataDxfId="320" dataCellStyle="Normal 2"/>
     <tableColumn id="67" xr3:uid="{80A3B713-9A97-304A-89E6-6FA17895F5C0}" name="Offensive Rating" dataDxfId="319" dataCellStyle="Normal 2"/>
@@ -21015,8 +21015,8 @@
     <tableColumn id="5" xr3:uid="{6CA5CEA5-7C3D-9E42-A7EF-BF667EB03E60}" name="Age" dataDxfId="260" dataCellStyle="Normal 2"/>
     <tableColumn id="6" xr3:uid="{EE55D3BC-B73F-F341-BD5A-EF2D0D30B5A7}" name="MP" dataDxfId="259" dataCellStyle="Normal 2"/>
     <tableColumn id="73" xr3:uid="{BBE9EA99-A236-E043-9D58-0C0CDDBDE6D6}" name="R. Global" dataDxfId="258" dataCellStyle="Normal 2"/>
-    <tableColumn id="24" xr3:uid="{FD82EDD3-E98D-A44C-B5C9-B1814C74069B}" name="Creative DM" dataDxfId="257" dataCellStyle="Normal 2"/>
-    <tableColumn id="23" xr3:uid="{8B901962-E202-2944-8F37-E84EF84BC642}" name="Defensive MD" dataDxfId="256" dataCellStyle="Normal 2"/>
+    <tableColumn id="24" xr3:uid="{FD82EDD3-E98D-A44C-B5C9-B1814C74069B}" name="Creative Central Midfielder" dataDxfId="257" dataCellStyle="Normal 2"/>
+    <tableColumn id="23" xr3:uid="{8B901962-E202-2944-8F37-E84EF84BC642}" name="Defensive Central Midfielder" dataDxfId="256" dataCellStyle="Normal 2"/>
     <tableColumn id="69" xr3:uid="{D15FBEA2-0B35-E748-8AA8-97E66F12CA2D}" name="Defensive Rating" dataDxfId="255" dataCellStyle="Normal 2"/>
     <tableColumn id="68" xr3:uid="{921E7DC7-B33A-184B-BC9B-65A7BD82E9A6}" name="Playmaking Rating" dataDxfId="254" dataCellStyle="Normal 2"/>
     <tableColumn id="67" xr3:uid="{C73FDFF3-C8AF-F046-8872-BB6ED6287FCB}" name="Offensive Rating" dataDxfId="253" dataCellStyle="Normal 2"/>
@@ -21091,9 +21091,9 @@
     <tableColumn id="5" xr3:uid="{E6FE7A8E-2A1C-3D4B-9D12-69B04AE1A1B1}" name="Age" dataDxfId="194" dataCellStyle="Normal 2"/>
     <tableColumn id="6" xr3:uid="{FD745021-7E82-7B49-974B-FE7A765152AE}" name="MP" dataDxfId="193" dataCellStyle="Normal 2"/>
     <tableColumn id="73" xr3:uid="{2F9BC17B-3C99-0E43-927F-043DC4D927E1}" name="R. Global" dataDxfId="192" dataCellStyle="Normal 2"/>
-    <tableColumn id="23" xr3:uid="{729D5B8A-526E-4D49-BFAF-2FDCFDB679A5}" name="Box to Box AM" dataDxfId="191" dataCellStyle="Normal 2"/>
-    <tableColumn id="22" xr3:uid="{17B02F2A-C966-204A-9E22-99AFAD3111BA}" name="Builder AM" dataDxfId="190" dataCellStyle="Normal 2"/>
-    <tableColumn id="21" xr3:uid="{0311E3B5-60BB-4E48-B993-9C1889480523}" name="Space Invader AM" dataDxfId="189" dataCellStyle="Normal 2"/>
+    <tableColumn id="23" xr3:uid="{729D5B8A-526E-4D49-BFAF-2FDCFDB679A5}" name="Box to Box Attacking Midfielder" dataDxfId="191" dataCellStyle="Normal 2"/>
+    <tableColumn id="22" xr3:uid="{17B02F2A-C966-204A-9E22-99AFAD3111BA}" name="Builder Attacking Midfielder" dataDxfId="190" dataCellStyle="Normal 2"/>
+    <tableColumn id="21" xr3:uid="{0311E3B5-60BB-4E48-B993-9C1889480523}" name="Space Invader Attacking Midfielder" dataDxfId="189" dataCellStyle="Normal 2"/>
     <tableColumn id="69" xr3:uid="{CD1E8E1A-11EA-A248-AF11-AD45704B6718}" name="Defensive Rating" dataDxfId="188" dataCellStyle="Normal 2"/>
     <tableColumn id="68" xr3:uid="{037FE8EE-6B26-6F40-A97A-20E6673AD90A}" name="Playmaking Rating" dataDxfId="187" dataCellStyle="Normal 2"/>
     <tableColumn id="67" xr3:uid="{93B4D4D5-CC95-1F4D-A87B-CDEBB28B7AFE}" name="Offensive Rating" dataDxfId="186" dataCellStyle="Normal 2"/>
@@ -22789,7 +22789,7 @@
       <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22948,13 +22948,13 @@
         <v>382</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L6" s="29" t="s">
         <v>1</v>
@@ -29927,13 +29927,13 @@
         <v>382</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>1</v>
@@ -35028,7 +35028,7 @@
       <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35183,10 +35183,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>1</v>
@@ -40017,7 +40017,7 @@
       <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40176,13 +40176,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>1</v>
@@ -45057,11 +45057,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9226B3-3083-A944-AD41-105CA43A1930}">
   <dimension ref="B2:BN36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45218,13 +45218,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>1</v>
@@ -51269,7 +51269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A71477E-4CF9-3242-926C-87518C7D5EB8}">
   <dimension ref="B2:BN26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
